--- a/Production/BOMs/SeeedStudio/3DProUsb-SeeedStudio-BOM-DigiKey.xlsx
+++ b/Production/BOMs/SeeedStudio/3DProUsb-SeeedStudio-BOM-DigiKey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kreeblah/SidewinderToUSBV2/Production/BOMs/SeeedStudio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3296309-A23F-A647-814F-B3AE11CEBC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45218A8E-8EA3-2E46-9F40-0D6F1C67E708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1420" windowWidth="27240" windowHeight="15300" xr2:uid="{0C8D7EBD-3800-C24C-95BA-244E27EE7FD8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_3DProUsb_SeeedStudio_BOM" localSheetId="0">Sheet1!$A$1:$D$15</definedName>
+    <definedName name="_3DProUsb_SeeedStudio_BOM" localSheetId="0">Sheet1!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Designator</t>
   </si>
@@ -180,17 +180,29 @@
     <t>3</t>
   </si>
   <si>
-    <t>10118193-0001LF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/products/en?keywords=609-4616-2-ND</t>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/gct/USB4105-GF-A/11198441</t>
+  </si>
+  <si>
+    <t>R8,R9</t>
+  </si>
+  <si>
+    <t>ERA-2APB512X</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/panasonic-electronic-components/era-2apb512x/5140865</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36393DF4-9537-B044-8A6E-7D2B7B2B4185}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -602,7 +614,7 @@
     <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -630,7 +642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -644,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -658,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -672,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -686,7 +698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -700,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -714,7 +726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -728,7 +740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -742,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -756,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -770,7 +782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -784,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -798,7 +810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -810,6 +822,20 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -823,12 +849,14 @@
     <hyperlink ref="D12" r:id="rId7" xr:uid="{82C7770D-C6DF-624D-BE44-ABA15E634B4F}"/>
     <hyperlink ref="D13" r:id="rId8" xr:uid="{5D96C2C5-07A6-004A-9F23-DC3CBC6CA835}"/>
     <hyperlink ref="D14" r:id="rId9" xr:uid="{0D7B959D-0B19-1B48-A462-16B8A1FB4363}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{45DD196D-CD65-F944-8E21-0C26E2D14340}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{45DD196D-CD65-F944-8E21-0C26E2D14340}"/>
     <hyperlink ref="D6" r:id="rId11" xr:uid="{74C6D2D8-A730-0243-BCCD-50DFFE84681A}"/>
     <hyperlink ref="D7" r:id="rId12" xr:uid="{0693496E-6A36-DF49-BD81-E2683E0BA0AF}"/>
     <hyperlink ref="D8" r:id="rId13" xr:uid="{75A80A8B-009B-C14D-961B-154E3CD5B26D}"/>
     <hyperlink ref="D9" r:id="rId14" xr:uid="{686D021B-3881-5B45-9E7E-EFB96E83621C}"/>
+    <hyperlink ref="D15" r:id="rId15" xr:uid="{981E42FE-C882-BA48-8516-5E5673E3182F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>